--- a/biology/Zoologie/Bythitidae/Bythitidae.xlsx
+++ b/biology/Zoologie/Bythitidae/Bythitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bythitidae sont une famille de poissons de l'ordre des Ophidiiformes.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons trapus et de silhouette archaïque, avec une grosse tête arrondie et un corps fusiforme. La nageoire dorsale est unique et longue, et souvent fusionnée avec la caudale et l'anale. Ce sont pour la plupart des poissons abyssaux vivipares, mais certains se trouvent également en eau douce[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons trapus et de silhouette archaïque, avec une grosse tête arrondie et un corps fusiforme. La nageoire dorsale est unique et longue, et souvent fusionnée avec la caudale et l'anale. Ce sont pour la plupart des poissons abyssaux vivipares, mais certains se trouvent également en eau douce. 
 En Méditerranée, les plongeurs peuvent parfois observer Grammonus ater, qui remonte de nuit pour se nourrir. 
-On compte environ 212 espèces réparties dans 53 genres[1]. 
+On compte environ 212 espèces réparties dans 53 genres. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 octobre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 octobre 2016) :
 genre Acarobythites Machida, 2000
 genre Alionematichthys Møller &amp; Schwarzhans, 2008
 genre Anacanthobythites Anderson, 2008
